--- a/Connections.xlsx
+++ b/Connections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7863ff1081637df6/Bureaublad/Sem6_Project/universal_connector_board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72E5123-5010-43D6-8209-8669714D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{D72E5123-5010-43D6-8209-8669714D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC75013-EFC9-4F08-A395-6156D0C2B60F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC364729-A95F-4A2A-BE67-225B29531981}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DC364729-A95F-4A2A-BE67-225B29531981}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>GPIO</t>
   </si>
@@ -110,15 +110,6 @@
     <t>RX_PICO</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>INH</t>
-  </si>
-  <si>
     <t>Display1_CS</t>
   </si>
   <si>
@@ -168,6 +159,99 @@
   </si>
   <si>
     <t>MD1_EN</t>
+  </si>
+  <si>
+    <t>I/O Expander</t>
+  </si>
+  <si>
+    <t>STOP_PIN1</t>
+  </si>
+  <si>
+    <t>STOP_PIN2</t>
+  </si>
+  <si>
+    <t>MUX_A</t>
+  </si>
+  <si>
+    <t>MUX_B</t>
+  </si>
+  <si>
+    <t>MUX_INH</t>
+  </si>
+  <si>
+    <t>IOexp_INT</t>
+  </si>
+  <si>
+    <t>IOexp_SCL</t>
+  </si>
+  <si>
+    <t>IOexp_SDA</t>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+  </si>
+  <si>
+    <t>Radar_CS</t>
+  </si>
+  <si>
+    <t>Radar_RES</t>
+  </si>
+  <si>
+    <t>MD_SW1</t>
+  </si>
+  <si>
+    <t>MD_SW2</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>3.3V in</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -289,8 +373,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,9 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,9 +405,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -707,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9527733C-76B7-41C8-9E36-14F404F3D920}">
-  <dimension ref="C3:M24"/>
+  <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,45 +808,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -778,13 +861,13 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L5">
@@ -804,13 +887,13 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6">
@@ -818,37 +901,37 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="2">
         <v>38</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -859,13 +942,13 @@
       <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
       <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L8">
@@ -874,7 +957,7 @@
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -885,13 +968,13 @@
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
       <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9">
@@ -911,13 +994,13 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
       <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L10">
@@ -937,11 +1020,11 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>28</v>
@@ -949,37 +1032,40 @@
       <c r="L11">
         <v>34</v>
       </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12">
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
         <v>33</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -990,11 +1076,11 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>27</v>
@@ -1002,10 +1088,13 @@
       <c r="L13">
         <v>32</v>
       </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1016,11 +1105,11 @@
       <c r="F14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>26</v>
@@ -1028,10 +1117,13 @@
       <c r="L14">
         <v>31</v>
       </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -1042,13 +1134,13 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="11" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L15">
@@ -1057,7 +1149,7 @@
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -1068,9 +1160,9 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
       <c r="K16">
         <v>22</v>
       </c>
@@ -1078,39 +1170,39 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12">
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
         <v>28</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1119,11 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
       <c r="K18">
         <v>21</v>
       </c>
@@ -1131,12 +1223,12 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1145,11 +1237,11 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
       <c r="K19">
         <v>20</v>
       </c>
@@ -1157,12 +1249,12 @@
         <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1173,9 +1265,9 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9"/>
       <c r="K20">
         <v>19</v>
       </c>
@@ -1183,12 +1275,12 @@
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -1199,9 +1291,9 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="9"/>
       <c r="K21">
         <v>18</v>
       </c>
@@ -1209,39 +1301,39 @@
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>18</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
         <v>23</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>19</v>
@@ -1252,9 +1344,9 @@
       <c r="F23" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="9"/>
       <c r="K23">
         <v>17</v>
       </c>
@@ -1262,12 +1354,12 @@
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>20</v>
@@ -1278,9 +1370,9 @@
       <c r="F24" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
       <c r="K24">
         <v>16</v>
       </c>
@@ -1288,20 +1380,231 @@
         <v>21</v>
       </c>
       <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="D33" s="14"/>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="G4:I24"/>
+  <mergeCells count="19">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G29:H36"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="G4:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Connections.xlsx
+++ b/Connections.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7863ff1081637df6/Bureaublad/Sem6_Project/universal_connector_board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{D72E5123-5010-43D6-8209-8669714D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC75013-EFC9-4F08-A395-6156D0C2B60F}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{D72E5123-5010-43D6-8209-8669714D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E782FD39-30AB-4C72-960B-9F5D253AF980}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DC364729-A95F-4A2A-BE67-225B29531981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC364729-A95F-4A2A-BE67-225B29531981}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Connections" sheetId="1" r:id="rId1"/>
+    <sheet name="Components" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
   <si>
     <t>GPIO</t>
   </si>
@@ -116,18 +117,12 @@
     <t>Display_DC</t>
   </si>
   <si>
-    <t>Display_SCL</t>
-  </si>
-  <si>
     <t>Display_RES</t>
   </si>
   <si>
     <t>Display2_CS</t>
   </si>
   <si>
-    <t>Display_SDA</t>
-  </si>
-  <si>
     <t>(ADC)</t>
   </si>
   <si>
@@ -137,12 +132,6 @@
     <t>Ledstrip2_DATA</t>
   </si>
   <si>
-    <t>SPI1 SCK/I2C SDA</t>
-  </si>
-  <si>
-    <t>SPI1 TX/I2C SCL</t>
-  </si>
-  <si>
     <t>MD2_EN</t>
   </si>
   <si>
@@ -170,15 +159,6 @@
     <t>STOP_PIN2</t>
   </si>
   <si>
-    <t>MUX_A</t>
-  </si>
-  <si>
-    <t>MUX_B</t>
-  </si>
-  <si>
-    <t>MUX_INH</t>
-  </si>
-  <si>
     <t>IOexp_INT</t>
   </si>
   <si>
@@ -252,13 +232,209 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>Radar_INT</t>
+  </si>
+  <si>
+    <t>Display_CLK</t>
+  </si>
+  <si>
+    <t>Display_MOSI</t>
+  </si>
+  <si>
+    <t>Radar_MISO</t>
+  </si>
+  <si>
+    <t>SPI1 SCK</t>
+  </si>
+  <si>
+    <t>SPI1 TX</t>
+  </si>
+  <si>
+    <t>Mux_INH</t>
+  </si>
+  <si>
+    <t>Mux_A</t>
+  </si>
+  <si>
+    <t>Mux_B</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>TP_3.3V</t>
+  </si>
+  <si>
+    <t>TP_12V</t>
+  </si>
+  <si>
+    <t>TP_5V</t>
+  </si>
+  <si>
+    <t>TP_GND</t>
+  </si>
+  <si>
+    <t>TP_RX</t>
+  </si>
+  <si>
+    <t>TP_TX</t>
+  </si>
+  <si>
+    <t>TP_VCC_STRIP1</t>
+  </si>
+  <si>
+    <t>TP_VCC_STRIP2</t>
+  </si>
+  <si>
+    <t>TP_VCC_MUX</t>
+  </si>
+  <si>
+    <t>TP_VSYS</t>
+  </si>
+  <si>
+    <t>TP_VCC_LEDM</t>
+  </si>
+  <si>
+    <t>TP_VCC_LEDC</t>
+  </si>
+  <si>
+    <t>TP_5V_RPI4</t>
+  </si>
+  <si>
+    <t>Display1</t>
+  </si>
+  <si>
+    <t>Display2</t>
+  </si>
+  <si>
+    <t>Ledstrip2</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Ledstrip1</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Cheeks</t>
+  </si>
+  <si>
+    <t>Motor1</t>
+  </si>
+  <si>
+    <t>Motor2</t>
+  </si>
+  <si>
+    <t>Extra VCC/GND</t>
+  </si>
+  <si>
+    <t>Ledstrip1_VCC</t>
+  </si>
+  <si>
+    <t>Ledstrip2_VCC</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>Mux_VCC</t>
+  </si>
+  <si>
+    <t>MS lijnen motor driver</t>
+  </si>
+  <si>
+    <t>Instellen van voltage van 
+componenten/connectoren</t>
+  </si>
+  <si>
+    <t>Extra MUX_UART headers</t>
+  </si>
+  <si>
+    <t>Voltage input</t>
+  </si>
+  <si>
+    <t>Soort</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>JST connector</t>
+  </si>
+  <si>
+    <t>Pinheaders</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Shutdown knop RPI4</t>
+  </si>
+  <si>
+    <t>Power led</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>RPI_Pico_EvaluationBoard</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>SN74LV4052ADR</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>TPS51397ARJER</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>TCA9534DWR</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Pico footprint</t>
+  </si>
+  <si>
+    <t>Uart multiplexer</t>
+  </si>
+  <si>
+    <t>5V Regulator</t>
+  </si>
+  <si>
+    <t>Important components</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +442,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +478,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -369,11 +573,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -406,12 +654,138 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -471,6 +845,63 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75150272-4E0B-45E8-8A18-E7276574ADB5}" name="Tabel1" displayName="Tabel1" ref="B3:C23" totalsRowShown="0">
+  <autoFilter ref="B3:C23" xr:uid="{75150272-4E0B-45E8-8A18-E7276574ADB5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9E3D5719-A32D-4206-B445-E105A7C32F78}" name="TP"/>
+    <tableColumn id="2" xr3:uid="{05160B86-63D6-4B1A-8730-7A4AF626F864}" name="Omschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{913E26B0-3315-4BC2-9309-89FDCC28A4FA}" name="Tabel2" displayName="Tabel2" ref="F3:H18" totalsRowShown="0">
+  <autoFilter ref="F3:H18" xr:uid="{913E26B0-3315-4BC2-9309-89FDCC28A4FA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{920CA546-6FB0-4A68-835D-94B747B01F4C}" name="J"/>
+    <tableColumn id="2" xr3:uid="{A956AE84-897B-4E20-B916-5343D0695624}" name="Omschrijving"/>
+    <tableColumn id="3" xr3:uid="{3A68BFA4-C23D-4545-94FE-9406B4B4C661}" name="Soort"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0466131F-BE62-4C7B-8D8B-D83C5A02E5B5}" name="Tabel3" displayName="Tabel3" ref="J3:K8" totalsRowShown="0">
+  <autoFilter ref="J3:K8" xr:uid="{0466131F-BE62-4C7B-8D8B-D83C5A02E5B5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{74B77163-D357-4CC3-9EF6-C20829EAFD99}" name="JP"/>
+    <tableColumn id="2" xr3:uid="{CC5BA56F-B3A1-4D11-9383-0B1F67852747}" name="Omschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1D2E94C1-206E-450F-9D2F-9C9604BB9250}" name="Tabel4" displayName="Tabel4" ref="J13:K15" totalsRowShown="0">
+  <autoFilter ref="J13:K15" xr:uid="{1D2E94C1-206E-450F-9D2F-9C9604BB9250}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F7695E12-5ACA-4445-8B9E-6B22E97F75EE}" name="--"/>
+    <tableColumn id="2" xr3:uid="{D4DA457A-EF88-4E61-AE99-D8DDF3D934B4}" name="Omschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8E80941-B1CF-49D7-A86D-8D35381FCF9B}" name="Tabel6" displayName="Tabel6" ref="M8:O12" insertRowShift="1" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="M8:O12" xr:uid="{C8E80941-B1CF-49D7-A86D-8D35381FCF9B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{10CC457D-E443-4FE5-8EB6-451CE072C0A3}" name="--" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5A7F9D55-28A6-4D90-8925-BF88B1AEF4C2}" name="Component" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D58B5C1E-FF42-471C-BF29-18D7C80B5E46}" name="Omschrijving" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9527733C-76B7-41C8-9E36-14F404F3D920}">
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,7 +1362,7 @@
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -957,7 +1388,7 @@
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1024,7 +1455,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="9"/>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>28</v>
@@ -1033,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
@@ -1065,7 +1496,7 @@
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -1080,7 +1511,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="9"/>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>27</v>
@@ -1089,12 +1520,12 @@
         <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1109,7 +1540,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="9"/>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>26</v>
@@ -1118,7 +1549,7 @@
         <v>31</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
@@ -1170,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
@@ -1202,7 +1633,7 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1211,7 +1642,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
@@ -1223,12 +1654,12 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1237,7 +1668,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
@@ -1249,12 +1680,12 @@
         <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1275,12 +1706,12 @@
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -1301,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
@@ -1333,7 +1764,7 @@
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>19</v>
@@ -1354,12 +1785,12 @@
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>20</v>
@@ -1380,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
@@ -1413,20 +1844,20 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
@@ -1438,18 +1869,18 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J30">
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
@@ -1461,98 +1892,104 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J31">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="C32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="13"/>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J32">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="C33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="13"/>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J33">
         <v>12</v>
       </c>
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="14"/>
+      <c r="C34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="13"/>
       <c r="E34">
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J34">
         <v>11</v>
       </c>
+      <c r="K34" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="14"/>
+      <c r="C35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="13"/>
       <c r="E35">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J35">
         <v>10</v>
@@ -1575,7 +2012,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J36">
         <v>9</v>
@@ -1609,4 +2046,421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992C6DD-2CA3-46B8-9852-A0F4E37DD8C2}">
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="M9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Connections.xlsx
+++ b/Connections.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7863ff1081637df6/Bureaublad/Sem6_Project/universal_connector_board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{D72E5123-5010-43D6-8209-8669714D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E782FD39-30AB-4C72-960B-9F5D253AF980}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{D72E5123-5010-43D6-8209-8669714D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8800DEFF-6EA9-42A2-8E69-D91018132342}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC364729-A95F-4A2A-BE67-225B29531981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DC364729-A95F-4A2A-BE67-225B29531981}"/>
   </bookViews>
   <sheets>
     <sheet name="Connections" sheetId="1" r:id="rId1"/>
     <sheet name="Components" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>GPIO</t>
   </si>
@@ -428,6 +429,14 @@
   </si>
   <si>
     <t>Important components</t>
+  </si>
+  <si>
+    <t>Cheeks
+(2 leds)</t>
+  </si>
+  <si>
+    <t>Mouth 
+(1 led)</t>
   </si>
 </sst>
 </file>
@@ -626,6 +635,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,20 +671,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,6 +847,60 @@
         <a:xfrm>
           <a:off x="8983548" y="906780"/>
           <a:ext cx="4336768" cy="3337560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606462</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFB626F-AF04-4F62-B02C-BB7A9701AA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20981" t="7954" r="19608" b="8152"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3044862" y="545951"/>
+          <a:ext cx="6430832" cy="4325693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9527733C-76B7-41C8-9E36-14F404F3D920}">
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -1239,45 +1304,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1292,9 +1357,9 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="17"/>
       <c r="J5" t="s">
         <v>15</v>
       </c>
@@ -1318,9 +1383,9 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="17"/>
       <c r="J6" t="s">
         <v>16</v>
       </c>
@@ -1344,9 +1409,9 @@
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1373,9 +1438,9 @@
       <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="17"/>
       <c r="J8" t="s">
         <v>17</v>
       </c>
@@ -1399,9 +1464,9 @@
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="17"/>
       <c r="J9" t="s">
         <v>18</v>
       </c>
@@ -1425,9 +1490,9 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="17"/>
       <c r="J10" t="s">
         <v>19</v>
       </c>
@@ -1451,9 +1516,9 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="17"/>
       <c r="J11" t="s">
         <v>28</v>
       </c>
@@ -1480,9 +1545,9 @@
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1507,9 +1572,9 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="17"/>
       <c r="J13" t="s">
         <v>44</v>
       </c>
@@ -1536,9 +1601,9 @@
       <c r="F14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="17"/>
       <c r="J14" t="s">
         <v>43</v>
       </c>
@@ -1565,9 +1630,9 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1591,9 +1656,9 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="17"/>
       <c r="K16">
         <v>22</v>
       </c>
@@ -1617,9 +1682,9 @@
       <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1644,9 +1709,9 @@
       <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="17"/>
       <c r="K18">
         <v>21</v>
       </c>
@@ -1670,9 +1735,9 @@
       <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="17"/>
       <c r="K19">
         <v>20</v>
       </c>
@@ -1696,9 +1761,9 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="17"/>
       <c r="K20">
         <v>19</v>
       </c>
@@ -1722,9 +1787,9 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="17"/>
       <c r="K21">
         <v>18</v>
       </c>
@@ -1748,9 +1813,9 @@
       <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1775,9 +1840,9 @@
       <c r="F23" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="9"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="17"/>
       <c r="K23">
         <v>17</v>
       </c>
@@ -1801,9 +1866,9 @@
       <c r="F24" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
       <c r="K24">
         <v>16</v>
       </c>
@@ -1815,10 +1880,10 @@
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="21"/>
       <c r="E28" t="s">
         <v>2</v>
       </c>
@@ -1836,20 +1901,20 @@
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13"/>
+      <c r="C29" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="12"/>
       <c r="I29" t="s">
         <v>49</v>
       </c>
@@ -1861,18 +1926,18 @@
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13"/>
+      <c r="C30" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" t="s">
         <v>58</v>
       </c>
@@ -1884,18 +1949,18 @@
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13"/>
+      <c r="C31" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="21"/>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31" t="s">
         <v>59</v>
       </c>
@@ -1907,18 +1972,18 @@
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="21"/>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" t="s">
         <v>60</v>
       </c>
@@ -1930,18 +1995,18 @@
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="21"/>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33" t="s">
         <v>61</v>
       </c>
@@ -1953,18 +2018,18 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="21"/>
       <c r="E34">
         <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" t="s">
         <v>62</v>
       </c>
@@ -1976,18 +2041,18 @@
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="21"/>
       <c r="E35">
         <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" t="s">
         <v>63</v>
       </c>
@@ -1999,18 +2064,18 @@
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13"/>
+      <c r="C36" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="21"/>
       <c r="E36">
         <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
       <c r="I36" t="s">
         <v>64</v>
       </c>
@@ -2052,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992C6DD-2CA3-46B8-9852-A0F4E37DD8C2}">
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,12 +2138,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -2104,7 +2169,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -2179,7 +2244,7 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="6">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2234,17 +2299,17 @@
       <c r="H9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="M9" s="21" t="s">
+      <c r="K9" s="12"/>
+      <c r="M9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2264,15 +2329,15 @@
       <c r="H10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="M10" s="15" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="M10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2292,13 +2357,13 @@
       <c r="H11" t="s">
         <v>111</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2318,13 +2383,13 @@
       <c r="H12" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2463,4 +2528,72 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0766705E-60D4-4413-870C-AD3193AEEFE3}">
+  <dimension ref="E3:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="2.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>